--- a/data/Medtest_e.xlsx
+++ b/data/Medtest_e.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Aktenschrank\Kontakte\CQ_Bildung\Projekte\ABI\RKurs\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Aktenschrank\Analysen\R\RStatsbook\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1098891D-5B87-4FF1-BE2D-AA23B8177C4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD766A4-B03C-489F-B661-C2E876720EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13890" yWindow="-21720" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6340" yWindow="14290" windowWidth="24220" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MedtestMB" sheetId="1" r:id="rId1"/>
+    <sheet name="Data+Units" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="38">
   <si>
     <t>randomcode</t>
   </si>
@@ -102,12 +103,45 @@
   <si>
     <t>f</t>
   </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>mmHg</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>mL</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>sec</t>
+  </si>
+  <si>
+    <t>ng/mL</t>
+  </si>
+  <si>
+    <t>μg/dL</t>
+  </si>
+  <si>
+    <t>mg/dL</t>
+  </si>
+  <si>
+    <t>kg/m²</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,13 +149,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -136,13 +188,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -158,9 +215,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -198,9 +255,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,26 +290,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -285,26 +325,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -480,13 +503,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T31" sqref="T31"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +586,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>3</v>
       </c>
@@ -640,7 +663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>4</v>
       </c>
@@ -709,7 +732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>6</v>
       </c>
@@ -772,7 +795,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>7</v>
       </c>
@@ -837,7 +860,7 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>10</v>
       </c>
@@ -908,7 +931,7 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>12</v>
       </c>
@@ -981,7 +1004,7 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>13</v>
       </c>
@@ -1048,7 +1071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>16</v>
       </c>
@@ -1107,7 +1130,7 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>17</v>
       </c>
@@ -1180,7 +1203,7 @@
       </c>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>19</v>
       </c>
@@ -1255,7 +1278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>22</v>
       </c>
@@ -1328,7 +1351,7 @@
       </c>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>24</v>
       </c>
@@ -1393,7 +1416,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>26</v>
       </c>
@@ -1468,7 +1491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>28</v>
       </c>
@@ -1541,7 +1564,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -1618,7 +1641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -1695,7 +1718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>5</v>
       </c>
@@ -1768,7 +1791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>8</v>
       </c>
@@ -1821,7 +1844,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>9</v>
       </c>
@@ -1894,7 +1917,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>11</v>
       </c>
@@ -1959,7 +1982,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>14</v>
       </c>
@@ -2030,7 +2053,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>15</v>
       </c>
@@ -2095,7 +2118,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>18</v>
       </c>
@@ -2170,7 +2193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>20</v>
       </c>
@@ -2247,7 +2270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>21</v>
       </c>
@@ -2324,7 +2347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>23</v>
       </c>
@@ -2399,7 +2422,7 @@
       </c>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -2474,7 +2497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -2546,6 +2569,2142 @@
       </c>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{881F86B8-790F-430B-8425-DA4EA2676606}">
+  <dimension ref="A1:Y30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>174</v>
+      </c>
+      <c r="G3" s="5">
+        <v>110</v>
+      </c>
+      <c r="H3" s="5">
+        <v>137</v>
+      </c>
+      <c r="I3" s="5">
+        <v>60</v>
+      </c>
+      <c r="J3" s="5">
+        <v>161</v>
+      </c>
+      <c r="K3" s="5">
+        <v>62</v>
+      </c>
+      <c r="L3" s="5">
+        <v>62</v>
+      </c>
+      <c r="M3" s="5">
+        <v>60</v>
+      </c>
+      <c r="N3" s="5">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="O3" s="5">
+        <v>205</v>
+      </c>
+      <c r="P3" s="5">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>282</v>
+      </c>
+      <c r="R3" s="5">
+        <v>135</v>
+      </c>
+      <c r="S3" s="5">
+        <v>60</v>
+      </c>
+      <c r="T3" s="5">
+        <v>36.332408508389484</v>
+      </c>
+      <c r="U3" s="5">
+        <v>65</v>
+      </c>
+      <c r="V3" s="5">
+        <v>1</v>
+      </c>
+      <c r="W3" s="5">
+        <v>3</v>
+      </c>
+      <c r="X3" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="5">
+        <v>164</v>
+      </c>
+      <c r="G4" s="5">
+        <v>93</v>
+      </c>
+      <c r="H4" s="5">
+        <v>128</v>
+      </c>
+      <c r="I4" s="5">
+        <v>66</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="5">
+        <v>23.8</v>
+      </c>
+      <c r="O4" s="5">
+        <v>81</v>
+      </c>
+      <c r="P4" s="5">
+        <v>91</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>221</v>
+      </c>
+      <c r="R4" s="5">
+        <v>132</v>
+      </c>
+      <c r="S4" s="5">
+        <v>72</v>
+      </c>
+      <c r="T4" s="5">
+        <v>34.577632361689474</v>
+      </c>
+      <c r="U4" s="5">
+        <v>68</v>
+      </c>
+      <c r="V4" s="5">
+        <v>0</v>
+      </c>
+      <c r="W4" s="5">
+        <v>2</v>
+      </c>
+      <c r="X4" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>174</v>
+      </c>
+      <c r="G5" s="5">
+        <v>76</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="5">
+        <v>225</v>
+      </c>
+      <c r="K5" s="5">
+        <v>100</v>
+      </c>
+      <c r="L5" s="5">
+        <v>56</v>
+      </c>
+      <c r="M5" s="5">
+        <v>59</v>
+      </c>
+      <c r="N5" s="5">
+        <v>26</v>
+      </c>
+      <c r="O5" s="5">
+        <v>169</v>
+      </c>
+      <c r="P5" s="5">
+        <v>84</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>225</v>
+      </c>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="5">
+        <v>25.102391333069097</v>
+      </c>
+      <c r="U5" s="5">
+        <v>64</v>
+      </c>
+      <c r="V5" s="5">
+        <v>1</v>
+      </c>
+      <c r="W5" s="5"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5">
+        <v>171</v>
+      </c>
+      <c r="G6" s="5">
+        <v>120</v>
+      </c>
+      <c r="H6" s="5">
+        <v>116</v>
+      </c>
+      <c r="I6" s="5">
+        <v>70</v>
+      </c>
+      <c r="J6" s="5">
+        <v>320</v>
+      </c>
+      <c r="K6" s="5">
+        <v>267</v>
+      </c>
+      <c r="L6" s="5">
+        <v>17</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="5">
+        <v>26.8</v>
+      </c>
+      <c r="O6" s="5">
+        <v>225</v>
+      </c>
+      <c r="P6" s="5">
+        <v>55</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>253</v>
+      </c>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="5">
+        <v>41.038268185082593</v>
+      </c>
+      <c r="U6" s="5">
+        <v>53</v>
+      </c>
+      <c r="V6" s="5">
+        <v>1</v>
+      </c>
+      <c r="W6" s="5"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5">
+        <v>175</v>
+      </c>
+      <c r="G7" s="5">
+        <v>87</v>
+      </c>
+      <c r="H7" s="5">
+        <v>126</v>
+      </c>
+      <c r="I7" s="5">
+        <v>71</v>
+      </c>
+      <c r="J7" s="5">
+        <v>189</v>
+      </c>
+      <c r="K7" s="5">
+        <v>50</v>
+      </c>
+      <c r="L7" s="5">
+        <v>74</v>
+      </c>
+      <c r="M7" s="5">
+        <v>69</v>
+      </c>
+      <c r="N7" s="5">
+        <v>37</v>
+      </c>
+      <c r="O7" s="5">
+        <v>519</v>
+      </c>
+      <c r="P7" s="5">
+        <v>140</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>264</v>
+      </c>
+      <c r="R7" s="5">
+        <v>110</v>
+      </c>
+      <c r="S7" s="5">
+        <v>68</v>
+      </c>
+      <c r="T7" s="5">
+        <v>28.408163265306122</v>
+      </c>
+      <c r="U7" s="5">
+        <v>66</v>
+      </c>
+      <c r="V7" s="5">
+        <v>1</v>
+      </c>
+      <c r="W7" s="5"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5">
+        <v>173</v>
+      </c>
+      <c r="G8" s="5">
+        <v>92</v>
+      </c>
+      <c r="H8" s="5">
+        <v>136</v>
+      </c>
+      <c r="I8" s="5">
+        <v>69</v>
+      </c>
+      <c r="J8" s="5">
+        <v>379</v>
+      </c>
+      <c r="K8" s="5">
+        <v>294</v>
+      </c>
+      <c r="L8" s="5">
+        <v>22</v>
+      </c>
+      <c r="M8" s="5">
+        <v>21</v>
+      </c>
+      <c r="N8" s="5">
+        <v>27.1</v>
+      </c>
+      <c r="O8" s="5">
+        <v>238</v>
+      </c>
+      <c r="P8" s="5">
+        <v>90</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>279</v>
+      </c>
+      <c r="R8" s="5">
+        <v>123</v>
+      </c>
+      <c r="S8" s="5">
+        <v>64</v>
+      </c>
+      <c r="T8" s="5">
+        <v>30.73941661933242</v>
+      </c>
+      <c r="U8" s="5">
+        <v>64</v>
+      </c>
+      <c r="V8" s="5">
+        <v>1</v>
+      </c>
+      <c r="W8" s="5">
+        <v>1</v>
+      </c>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5">
+        <v>172</v>
+      </c>
+      <c r="G9" s="5">
+        <v>89</v>
+      </c>
+      <c r="H9" s="5">
+        <v>98</v>
+      </c>
+      <c r="I9" s="5">
+        <v>65</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="5">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="O9" s="5">
+        <v>215</v>
+      </c>
+      <c r="P9" s="5">
+        <v>124</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>232</v>
+      </c>
+      <c r="R9" s="5">
+        <v>109</v>
+      </c>
+      <c r="S9" s="5">
+        <v>67</v>
+      </c>
+      <c r="T9" s="5">
+        <v>30.08382909680909</v>
+      </c>
+      <c r="U9" s="5">
+        <v>71</v>
+      </c>
+      <c r="V9" s="5">
+        <v>1</v>
+      </c>
+      <c r="W9" s="5">
+        <v>1</v>
+      </c>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>16</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5">
+        <v>173</v>
+      </c>
+      <c r="G10" s="5">
+        <v>108</v>
+      </c>
+      <c r="H10" s="5">
+        <v>126</v>
+      </c>
+      <c r="I10" s="5">
+        <v>73</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="5">
+        <v>28.6</v>
+      </c>
+      <c r="O10" s="5">
+        <v>393</v>
+      </c>
+      <c r="P10" s="5">
+        <v>105</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>275</v>
+      </c>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="5">
+        <v>36.085402118346749</v>
+      </c>
+      <c r="U10" s="5">
+        <v>60</v>
+      </c>
+      <c r="V10" s="5">
+        <v>1</v>
+      </c>
+      <c r="W10" s="5"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>17</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5">
+        <v>180</v>
+      </c>
+      <c r="G11" s="5">
+        <v>91</v>
+      </c>
+      <c r="H11" s="5">
+        <v>97</v>
+      </c>
+      <c r="I11" s="5">
+        <v>65</v>
+      </c>
+      <c r="J11" s="5">
+        <v>277</v>
+      </c>
+      <c r="K11" s="5">
+        <v>122</v>
+      </c>
+      <c r="L11" s="5">
+        <v>56</v>
+      </c>
+      <c r="M11" s="5">
+        <v>54</v>
+      </c>
+      <c r="N11" s="5">
+        <v>32.6</v>
+      </c>
+      <c r="O11" s="5">
+        <v>466</v>
+      </c>
+      <c r="P11" s="5">
+        <v>80</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>214</v>
+      </c>
+      <c r="R11" s="5">
+        <v>122</v>
+      </c>
+      <c r="S11" s="5">
+        <v>78</v>
+      </c>
+      <c r="T11" s="5">
+        <v>28.086419753086417</v>
+      </c>
+      <c r="U11" s="5">
+        <v>52</v>
+      </c>
+      <c r="V11" s="5">
+        <v>1</v>
+      </c>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="7"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="5">
+        <v>168</v>
+      </c>
+      <c r="G12" s="5">
+        <v>80</v>
+      </c>
+      <c r="H12" s="5">
+        <v>130</v>
+      </c>
+      <c r="I12" s="5">
+        <v>66</v>
+      </c>
+      <c r="J12" s="5">
+        <v>286</v>
+      </c>
+      <c r="K12" s="5">
+        <v>198</v>
+      </c>
+      <c r="L12" s="5">
+        <v>31</v>
+      </c>
+      <c r="M12" s="5">
+        <v>19</v>
+      </c>
+      <c r="N12" s="5">
+        <v>53.8</v>
+      </c>
+      <c r="O12" s="5">
+        <v>138</v>
+      </c>
+      <c r="P12" s="5">
+        <v>105</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>307</v>
+      </c>
+      <c r="R12" s="5">
+        <v>114</v>
+      </c>
+      <c r="S12" s="5">
+        <v>52</v>
+      </c>
+      <c r="T12" s="5">
+        <v>28.344671201814062</v>
+      </c>
+      <c r="U12" s="5">
+        <v>65</v>
+      </c>
+      <c r="V12" s="5">
+        <v>0</v>
+      </c>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>22</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="5">
+        <v>182</v>
+      </c>
+      <c r="G13" s="5">
+        <v>82</v>
+      </c>
+      <c r="H13" s="5">
+        <v>100</v>
+      </c>
+      <c r="I13" s="5">
+        <v>71</v>
+      </c>
+      <c r="J13" s="5">
+        <v>243</v>
+      </c>
+      <c r="K13" s="5">
+        <v>113</v>
+      </c>
+      <c r="L13" s="5">
+        <v>54</v>
+      </c>
+      <c r="M13" s="5">
+        <v>49</v>
+      </c>
+      <c r="N13" s="5">
+        <v>31.2</v>
+      </c>
+      <c r="O13" s="5">
+        <v>261</v>
+      </c>
+      <c r="P13" s="5">
+        <v>103</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>261</v>
+      </c>
+      <c r="R13" s="5">
+        <v>115</v>
+      </c>
+      <c r="S13" s="5">
+        <v>65</v>
+      </c>
+      <c r="T13" s="5">
+        <v>24.755464315903875</v>
+      </c>
+      <c r="U13" s="5">
+        <v>43</v>
+      </c>
+      <c r="V13" s="5">
+        <v>1</v>
+      </c>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="7"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>24</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="5">
+        <v>184</v>
+      </c>
+      <c r="G14" s="5">
+        <v>82</v>
+      </c>
+      <c r="H14" s="5">
+        <v>133</v>
+      </c>
+      <c r="I14" s="5">
+        <v>87</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="5">
+        <v>33.5</v>
+      </c>
+      <c r="O14" s="5">
+        <v>160</v>
+      </c>
+      <c r="P14" s="5">
+        <v>85</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>241</v>
+      </c>
+      <c r="R14" s="5">
+        <v>115</v>
+      </c>
+      <c r="S14" s="5">
+        <v>79</v>
+      </c>
+      <c r="T14" s="5">
+        <v>24.220226843100189</v>
+      </c>
+      <c r="U14" s="5">
+        <v>53</v>
+      </c>
+      <c r="V14" s="5">
+        <v>1</v>
+      </c>
+      <c r="W14" s="5">
+        <v>1</v>
+      </c>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>26</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="5">
+        <v>161</v>
+      </c>
+      <c r="G15" s="5">
+        <v>83</v>
+      </c>
+      <c r="H15" s="5">
+        <v>119</v>
+      </c>
+      <c r="I15" s="5">
+        <v>65</v>
+      </c>
+      <c r="J15" s="5">
+        <v>118</v>
+      </c>
+      <c r="K15" s="5">
+        <v>52</v>
+      </c>
+      <c r="L15" s="5">
+        <v>56</v>
+      </c>
+      <c r="M15" s="5">
+        <v>51</v>
+      </c>
+      <c r="N15" s="5">
+        <v>33.4</v>
+      </c>
+      <c r="O15" s="5">
+        <v>354</v>
+      </c>
+      <c r="P15" s="5">
+        <v>94</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>265</v>
+      </c>
+      <c r="R15" s="5">
+        <v>144</v>
+      </c>
+      <c r="S15" s="5">
+        <v>59</v>
+      </c>
+      <c r="T15" s="5">
+        <v>32.020369584506767</v>
+      </c>
+      <c r="U15" s="5">
+        <v>74</v>
+      </c>
+      <c r="V15" s="5">
+        <v>1</v>
+      </c>
+      <c r="W15" s="5">
+        <v>1</v>
+      </c>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>28</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="5">
+        <v>177</v>
+      </c>
+      <c r="G16" s="5">
+        <v>74</v>
+      </c>
+      <c r="H16" s="5">
+        <v>140</v>
+      </c>
+      <c r="I16" s="5">
+        <v>80</v>
+      </c>
+      <c r="J16" s="5">
+        <v>231</v>
+      </c>
+      <c r="K16" s="5">
+        <v>120</v>
+      </c>
+      <c r="L16" s="5">
+        <v>48</v>
+      </c>
+      <c r="M16" s="5">
+        <v>45</v>
+      </c>
+      <c r="N16" s="5">
+        <v>29</v>
+      </c>
+      <c r="O16" s="5">
+        <v>191</v>
+      </c>
+      <c r="P16" s="5">
+        <v>159</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>276</v>
+      </c>
+      <c r="R16" s="5">
+        <v>128</v>
+      </c>
+      <c r="S16" s="5">
+        <v>62</v>
+      </c>
+      <c r="T16" s="5">
+        <v>23.620287912158062</v>
+      </c>
+      <c r="U16" s="5">
+        <v>48</v>
+      </c>
+      <c r="V16" s="5">
+        <v>1</v>
+      </c>
+      <c r="W16" s="5">
+        <v>3</v>
+      </c>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="5">
+        <v>193</v>
+      </c>
+      <c r="G17" s="5">
+        <v>113</v>
+      </c>
+      <c r="H17" s="5">
+        <v>144</v>
+      </c>
+      <c r="I17" s="5">
+        <v>68</v>
+      </c>
+      <c r="J17" s="5">
+        <v>201</v>
+      </c>
+      <c r="K17" s="5">
+        <v>70</v>
+      </c>
+      <c r="L17" s="5">
+        <v>66</v>
+      </c>
+      <c r="M17" s="5">
+        <v>58</v>
+      </c>
+      <c r="N17" s="5">
+        <v>37.6</v>
+      </c>
+      <c r="O17" s="5">
+        <v>490</v>
+      </c>
+      <c r="P17" s="5">
+        <v>77</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>194</v>
+      </c>
+      <c r="R17" s="5">
+        <v>120</v>
+      </c>
+      <c r="S17" s="5">
+        <v>69</v>
+      </c>
+      <c r="T17" s="5">
+        <v>30.336384869392468</v>
+      </c>
+      <c r="U17" s="5">
+        <v>59</v>
+      </c>
+      <c r="V17" s="5">
+        <v>1</v>
+      </c>
+      <c r="W17" s="5">
+        <v>1</v>
+      </c>
+      <c r="X17" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="5">
+        <v>173</v>
+      </c>
+      <c r="G18" s="5">
+        <v>99</v>
+      </c>
+      <c r="H18" s="5">
+        <v>94</v>
+      </c>
+      <c r="I18" s="5">
+        <v>45</v>
+      </c>
+      <c r="J18" s="5">
+        <v>278</v>
+      </c>
+      <c r="K18" s="5">
+        <v>185</v>
+      </c>
+      <c r="L18" s="5">
+        <v>34</v>
+      </c>
+      <c r="M18" s="5">
+        <v>21</v>
+      </c>
+      <c r="N18" s="5">
+        <v>36.4</v>
+      </c>
+      <c r="O18" s="5">
+        <v>264</v>
+      </c>
+      <c r="P18" s="5">
+        <v>61</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>343</v>
+      </c>
+      <c r="R18" s="5">
+        <v>122</v>
+      </c>
+      <c r="S18" s="5">
+        <v>56</v>
+      </c>
+      <c r="T18" s="5">
+        <v>33.078285275151188</v>
+      </c>
+      <c r="U18" s="5">
+        <v>67</v>
+      </c>
+      <c r="V18" s="5">
+        <v>1</v>
+      </c>
+      <c r="W18" s="5">
+        <v>2</v>
+      </c>
+      <c r="X18" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>5</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="5">
+        <v>178</v>
+      </c>
+      <c r="G19" s="5">
+        <v>74</v>
+      </c>
+      <c r="H19" s="5">
+        <v>113</v>
+      </c>
+      <c r="I19" s="5">
+        <v>67</v>
+      </c>
+      <c r="J19" s="5">
+        <v>155</v>
+      </c>
+      <c r="K19" s="5">
+        <v>57</v>
+      </c>
+      <c r="L19" s="5">
+        <v>63</v>
+      </c>
+      <c r="M19" s="5">
+        <v>62</v>
+      </c>
+      <c r="N19" s="5">
+        <v>31</v>
+      </c>
+      <c r="O19" s="5">
+        <v>256</v>
+      </c>
+      <c r="P19" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>195</v>
+      </c>
+      <c r="R19" s="5">
+        <v>116</v>
+      </c>
+      <c r="S19" s="5">
+        <v>73</v>
+      </c>
+      <c r="T19" s="5">
+        <v>23.355636914530994</v>
+      </c>
+      <c r="U19" s="5">
+        <v>62</v>
+      </c>
+      <c r="V19" s="5">
+        <v>1</v>
+      </c>
+      <c r="W19" s="5"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>8</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="5">
+        <v>168</v>
+      </c>
+      <c r="G20" s="5">
+        <v>68</v>
+      </c>
+      <c r="H20" s="5">
+        <v>110</v>
+      </c>
+      <c r="I20" s="5">
+        <v>62</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="5">
+        <v>24.092970521541954</v>
+      </c>
+      <c r="U20" s="5">
+        <v>53</v>
+      </c>
+      <c r="V20" s="5">
+        <v>0</v>
+      </c>
+      <c r="W20" s="5">
+        <v>0</v>
+      </c>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>9</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="5">
+        <v>167</v>
+      </c>
+      <c r="G21" s="5">
+        <v>76</v>
+      </c>
+      <c r="H21" s="5">
+        <v>109</v>
+      </c>
+      <c r="I21" s="5">
+        <v>74</v>
+      </c>
+      <c r="J21" s="5">
+        <v>122</v>
+      </c>
+      <c r="K21" s="5">
+        <v>53</v>
+      </c>
+      <c r="L21" s="5">
+        <v>56</v>
+      </c>
+      <c r="M21" s="5">
+        <v>56</v>
+      </c>
+      <c r="N21" s="5">
+        <v>34.6</v>
+      </c>
+      <c r="O21" s="5">
+        <v>59</v>
+      </c>
+      <c r="P21" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>264</v>
+      </c>
+      <c r="R21" s="5">
+        <v>109</v>
+      </c>
+      <c r="S21" s="5">
+        <v>71</v>
+      </c>
+      <c r="T21" s="5">
+        <v>27.250887446663558</v>
+      </c>
+      <c r="U21" s="5">
+        <v>59</v>
+      </c>
+      <c r="V21" s="5">
+        <v>1</v>
+      </c>
+      <c r="W21" s="5">
+        <v>2</v>
+      </c>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>11</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="5">
+        <v>186</v>
+      </c>
+      <c r="G22" s="5">
+        <v>110</v>
+      </c>
+      <c r="H22" s="5">
+        <v>140</v>
+      </c>
+      <c r="I22" s="5">
+        <v>90</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="5">
+        <v>26.2</v>
+      </c>
+      <c r="O22" s="5">
+        <v>222</v>
+      </c>
+      <c r="P22" s="5">
+        <v>48</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>280</v>
+      </c>
+      <c r="R22" s="5">
+        <v>126</v>
+      </c>
+      <c r="S22" s="5">
+        <v>78</v>
+      </c>
+      <c r="T22" s="5">
+        <v>31.795583304428252</v>
+      </c>
+      <c r="U22" s="5">
+        <v>51</v>
+      </c>
+      <c r="V22" s="5">
+        <v>1</v>
+      </c>
+      <c r="W22" s="5">
+        <v>0</v>
+      </c>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>14</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="5">
+        <v>172</v>
+      </c>
+      <c r="G23" s="5">
+        <v>82</v>
+      </c>
+      <c r="H23" s="5">
+        <v>152</v>
+      </c>
+      <c r="I23" s="5">
+        <v>79</v>
+      </c>
+      <c r="J23" s="5">
+        <v>129</v>
+      </c>
+      <c r="K23" s="5">
+        <v>62</v>
+      </c>
+      <c r="L23" s="5">
+        <v>52</v>
+      </c>
+      <c r="M23" s="5">
+        <v>44</v>
+      </c>
+      <c r="N23" s="5">
+        <v>33.4</v>
+      </c>
+      <c r="O23" s="5">
+        <v>1182</v>
+      </c>
+      <c r="P23" s="5">
+        <v>65</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>220</v>
+      </c>
+      <c r="R23" s="5">
+        <v>119</v>
+      </c>
+      <c r="S23" s="5">
+        <v>72</v>
+      </c>
+      <c r="T23" s="5">
+        <v>27.717685235262305</v>
+      </c>
+      <c r="U23" s="5">
+        <v>59</v>
+      </c>
+      <c r="V23" s="5">
+        <v>1</v>
+      </c>
+      <c r="W23" s="5"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>15</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="5">
+        <v>167</v>
+      </c>
+      <c r="G24" s="5">
+        <v>76</v>
+      </c>
+      <c r="H24" s="5">
+        <v>134</v>
+      </c>
+      <c r="I24" s="5">
+        <v>56</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="5">
+        <v>56</v>
+      </c>
+      <c r="N24" s="5">
+        <v>35.9</v>
+      </c>
+      <c r="O24" s="5">
+        <v>22</v>
+      </c>
+      <c r="P24" s="5">
+        <v>73</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>332</v>
+      </c>
+      <c r="R24" s="5">
+        <v>145</v>
+      </c>
+      <c r="S24" s="5">
+        <v>55</v>
+      </c>
+      <c r="T24" s="5">
+        <v>27.250887446663558</v>
+      </c>
+      <c r="U24" s="5">
+        <v>69</v>
+      </c>
+      <c r="V24" s="5">
+        <v>1</v>
+      </c>
+      <c r="W24" s="5"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>18</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="5">
+        <v>167</v>
+      </c>
+      <c r="G25" s="5">
+        <v>84</v>
+      </c>
+      <c r="H25" s="5">
+        <v>100</v>
+      </c>
+      <c r="I25" s="5">
+        <v>70</v>
+      </c>
+      <c r="J25" s="5">
+        <v>139</v>
+      </c>
+      <c r="K25" s="5">
+        <v>71</v>
+      </c>
+      <c r="L25" s="5">
+        <v>48</v>
+      </c>
+      <c r="M25" s="5">
+        <v>49</v>
+      </c>
+      <c r="N25" s="5">
+        <v>33.6</v>
+      </c>
+      <c r="O25" s="5">
+        <v>154</v>
+      </c>
+      <c r="P25" s="5">
+        <v>71</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>240</v>
+      </c>
+      <c r="R25" s="5">
+        <v>100</v>
+      </c>
+      <c r="S25" s="5">
+        <v>70</v>
+      </c>
+      <c r="T25" s="5">
+        <v>30.119401914733409</v>
+      </c>
+      <c r="U25" s="5">
+        <v>57</v>
+      </c>
+      <c r="V25" s="5">
+        <v>1</v>
+      </c>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>20</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="5">
+        <v>160</v>
+      </c>
+      <c r="G26" s="5">
+        <v>64</v>
+      </c>
+      <c r="H26" s="5">
+        <v>102</v>
+      </c>
+      <c r="I26" s="5">
+        <v>90</v>
+      </c>
+      <c r="J26" s="5">
+        <v>184</v>
+      </c>
+      <c r="K26" s="5">
+        <v>119</v>
+      </c>
+      <c r="L26" s="5">
+        <v>35</v>
+      </c>
+      <c r="M26" s="5">
+        <v>34</v>
+      </c>
+      <c r="N26" s="5">
+        <v>24.8</v>
+      </c>
+      <c r="O26" s="5">
+        <v>681</v>
+      </c>
+      <c r="P26" s="5">
+        <v>95</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>260</v>
+      </c>
+      <c r="R26" s="5">
+        <v>96</v>
+      </c>
+      <c r="S26" s="5">
+        <v>51</v>
+      </c>
+      <c r="T26" s="5">
+        <v>24.999999999999996</v>
+      </c>
+      <c r="U26" s="5">
+        <v>69</v>
+      </c>
+      <c r="V26" s="5">
+        <v>0</v>
+      </c>
+      <c r="W26" s="5">
+        <v>3</v>
+      </c>
+      <c r="X26" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>21</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="5">
+        <v>179</v>
+      </c>
+      <c r="G27" s="5">
+        <v>85</v>
+      </c>
+      <c r="H27" s="5">
+        <v>109</v>
+      </c>
+      <c r="I27" s="5">
+        <v>65</v>
+      </c>
+      <c r="J27" s="5">
+        <v>140</v>
+      </c>
+      <c r="K27" s="5">
+        <v>63</v>
+      </c>
+      <c r="L27" s="5">
+        <v>55</v>
+      </c>
+      <c r="M27" s="5">
+        <v>50</v>
+      </c>
+      <c r="N27" s="5">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="O27" s="5">
+        <v>204</v>
+      </c>
+      <c r="P27" s="5">
+        <v>31</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>260</v>
+      </c>
+      <c r="R27" s="5">
+        <v>108</v>
+      </c>
+      <c r="S27" s="5">
+        <v>69</v>
+      </c>
+      <c r="T27" s="5">
+        <v>26.528510346119035</v>
+      </c>
+      <c r="U27" s="5">
+        <v>62</v>
+      </c>
+      <c r="V27" s="5">
+        <v>1</v>
+      </c>
+      <c r="W27" s="5">
+        <v>1</v>
+      </c>
+      <c r="X27" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>23</v>
+      </c>
+      <c r="B28" s="5">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="5">
+        <v>187</v>
+      </c>
+      <c r="G28" s="5">
+        <v>109</v>
+      </c>
+      <c r="H28" s="5">
+        <v>145</v>
+      </c>
+      <c r="I28" s="5">
+        <v>73</v>
+      </c>
+      <c r="J28" s="5">
+        <v>164</v>
+      </c>
+      <c r="K28" s="5">
+        <v>62</v>
+      </c>
+      <c r="L28" s="5">
+        <v>63</v>
+      </c>
+      <c r="M28" s="5">
+        <v>65</v>
+      </c>
+      <c r="N28" s="5">
+        <v>40</v>
+      </c>
+      <c r="O28" s="5">
+        <v>238</v>
+      </c>
+      <c r="P28" s="5">
+        <v>66</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>262</v>
+      </c>
+      <c r="R28" s="5">
+        <v>134</v>
+      </c>
+      <c r="S28" s="5">
+        <v>58</v>
+      </c>
+      <c r="T28" s="5">
+        <v>31.170465269238463</v>
+      </c>
+      <c r="U28" s="5">
+        <v>67</v>
+      </c>
+      <c r="V28" s="5">
+        <v>1</v>
+      </c>
+      <c r="W28" s="5">
+        <v>1</v>
+      </c>
+      <c r="X28" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y28" s="7"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>25</v>
+      </c>
+      <c r="B29" s="5">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="5">
+        <v>175</v>
+      </c>
+      <c r="G29" s="5">
+        <v>78</v>
+      </c>
+      <c r="H29" s="5">
+        <v>121</v>
+      </c>
+      <c r="I29" s="5">
+        <v>71</v>
+      </c>
+      <c r="J29" s="5">
+        <v>193</v>
+      </c>
+      <c r="K29" s="5">
+        <v>77</v>
+      </c>
+      <c r="L29" s="5">
+        <v>60</v>
+      </c>
+      <c r="M29" s="5">
+        <v>60</v>
+      </c>
+      <c r="N29" s="5">
+        <v>28.3</v>
+      </c>
+      <c r="O29" s="5">
+        <v>20</v>
+      </c>
+      <c r="P29" s="5">
+        <v>191</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>254</v>
+      </c>
+      <c r="R29" s="5">
+        <v>121</v>
+      </c>
+      <c r="S29" s="5">
+        <v>80</v>
+      </c>
+      <c r="T29" s="5">
+        <v>25.469387755102041</v>
+      </c>
+      <c r="U29" s="5">
+        <v>51</v>
+      </c>
+      <c r="V29" s="5">
+        <v>1</v>
+      </c>
+      <c r="W29" s="5">
+        <v>1</v>
+      </c>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>27</v>
+      </c>
+      <c r="B30" s="5">
+        <v>1</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="5">
+        <v>175</v>
+      </c>
+      <c r="G30" s="5">
+        <v>89</v>
+      </c>
+      <c r="H30" s="5">
+        <v>131</v>
+      </c>
+      <c r="I30" s="5">
+        <v>64</v>
+      </c>
+      <c r="J30" s="5">
+        <v>200</v>
+      </c>
+      <c r="K30" s="5">
+        <v>123</v>
+      </c>
+      <c r="L30" s="5">
+        <v>38</v>
+      </c>
+      <c r="M30" s="5">
+        <v>40</v>
+      </c>
+      <c r="N30" s="5">
+        <v>30.2</v>
+      </c>
+      <c r="O30" s="5">
+        <v>176</v>
+      </c>
+      <c r="P30" s="5">
+        <v>63</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>272</v>
+      </c>
+      <c r="R30" s="5">
+        <v>104</v>
+      </c>
+      <c r="S30" s="5">
+        <v>58</v>
+      </c>
+      <c r="T30" s="5">
+        <v>29.061224489795919</v>
+      </c>
+      <c r="U30" s="5">
+        <v>61</v>
+      </c>
+      <c r="V30" s="5">
+        <v>1</v>
+      </c>
+      <c r="W30" s="5">
+        <v>1</v>
+      </c>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
